--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>534568.8907914879</v>
+        <v>466066.3834296477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383527.6204973682</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11507353.56554573</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8202683.188308737</v>
+        <v>8473099.978920728</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>72.47049842454879</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,17 +901,17 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>70.09702167014655</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,61 +1138,61 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>82.46119763909351</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>39.08117332487345</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>148.6429936570148</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.2386572690345</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023554</v>
+        <v>267.2026950097663</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>76.34949684223895</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>175.1311939478778</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>124.3436274632773</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>218.3734398702018</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.95772706123027</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>40.62363183383319</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>90.04875807993751</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.66811582074963</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>90.36399926182438</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>94.7450758855978</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2256,7 +2256,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>55.84003136202637</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.465802816548594</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>76.42893514214934</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>156.7418470016294</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>74.53436060286491</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>56.88196987815811</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>335.3965886158484</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>89.76224143674111</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>41.03250833502961</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1170845261939</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>213.8524658611804</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>84.95149223441521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>292.5505447168883</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>241.0400291378955</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>105.015905348654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.09260911231095</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>120.4120358099646</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>129.8110638510811</v>
+        <v>62.17792974248621</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>128.007473935708</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>89.15539282731811</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>360.3629867489851</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>274.7999090013961</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X2" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
         <v>506.1786963984129</v>
@@ -4555,7 +4555,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4606,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9119902784999</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C6" t="n">
-        <v>486.9119902784999</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D6" t="n">
-        <v>486.9119902784999</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>327.6745352730444</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1399772999294</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1399772999294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4682,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.4453565401495</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>858.9304414063565</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="C11" t="n">
-        <v>858.9304414063565</v>
+        <v>709.6329465496858</v>
       </c>
       <c r="D11" t="n">
-        <v>858.9304414063565</v>
+        <v>709.6329465496858</v>
       </c>
       <c r="E11" t="n">
-        <v>858.9304414063565</v>
+        <v>323.8446939514416</v>
       </c>
       <c r="F11" t="n">
-        <v>579.9844679696338</v>
+        <v>323.8446939514416</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618843</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438682</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173955</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330.2643857628952</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>330.2643857628952</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>181.3299761016439</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>641.2451212288495</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288495</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121333</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>869.473946577679</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>615.2365898494775</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>407.3850896439446</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
-        <v>330.2643857628952</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618843</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1161.958294416976</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>2476.569858826099</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.569858826099</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X14" t="n">
-        <v>2476.569858826099</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.569858826099</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5442,40 +5442,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931987</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
         <v>53.94298182036445</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>2520.971603332393</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y17" t="n">
-        <v>2520.971603332393</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.9013233152508</v>
+        <v>257.063349339234</v>
       </c>
       <c r="C19" t="n">
-        <v>144.9013233152508</v>
+        <v>257.063349339234</v>
       </c>
       <c r="D19" t="n">
-        <v>144.9013233152508</v>
+        <v>257.063349339234</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>257.063349339234</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>110.1734018413237</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W19" t="n">
-        <v>365.6939024587809</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X19" t="n">
-        <v>365.6939024587809</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.9013233152508</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1353.10866026757</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C20" t="n">
-        <v>984.1461433271581</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D20" t="n">
-        <v>625.8804447204077</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>625.8804447204077</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>625.8804447204077</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2327.78363766664</v>
       </c>
       <c r="V20" t="n">
-        <v>2465.942913862886</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="W20" t="n">
-        <v>2113.174258592771</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="X20" t="n">
-        <v>1739.708500331692</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y20" t="n">
-        <v>1739.708500331692</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C22" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D22" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E22" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3470539032194</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,7 +5919,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
         <v>529.6040388502502</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X22" t="n">
-        <v>500.1394333084171</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y22" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1036.358670716696</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C23" t="n">
-        <v>1036.358670716696</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>1036.358670716696</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -5992,10 +5992,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2483.795303567272</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2483.795303567272</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2483.795303567272</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.732416223701</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>1799.963760953587</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X23" t="n">
-        <v>1426.498002692507</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y23" t="n">
-        <v>1036.358670716696</v>
+        <v>1662.124202655614</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
+        <v>53.94298182036469</v>
+      </c>
+      <c r="J24" t="n">
         <v>53.94298182036446</v>
       </c>
-      <c r="J24" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>279.346854164887</v>
+        <v>111.3995170508272</v>
       </c>
       <c r="C25" t="n">
-        <v>279.346854164887</v>
+        <v>111.3995170508272</v>
       </c>
       <c r="D25" t="n">
-        <v>129.2302147525512</v>
+        <v>111.3995170508272</v>
       </c>
       <c r="E25" t="n">
-        <v>129.2302147525512</v>
+        <v>111.3995170508272</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>111.3995170508272</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036446</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X25" t="n">
-        <v>500.1394333084171</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y25" t="n">
-        <v>279.346854164887</v>
+        <v>293.0479818810669</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1702.337823625994</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>1702.337823625994</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>1702.337823625994</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6238,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862886</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="V26" t="n">
-        <v>2465.942913862886</v>
+        <v>2220.388583460962</v>
       </c>
       <c r="W26" t="n">
-        <v>2465.942913862886</v>
+        <v>1867.619928190848</v>
       </c>
       <c r="X26" t="n">
-        <v>2092.477155601806</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.337823625994</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="27">
@@ -6287,49 +6287,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2697.149091018222</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>2528.212908090316</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>2528.212908090316</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E28" t="n">
-        <v>2380.299814507922</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F28" t="n">
-        <v>2233.409867010012</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G28" t="n">
-        <v>2064.410066748344</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1310.833184497836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.833184497836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>1994.66472711152</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1663.60183976795</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W29" t="n">
-        <v>1310.833184497836</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X29" t="n">
-        <v>1310.833184497836</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>1310.833184497836</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6554,31 +6554,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.8207968750362</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U31" t="n">
-        <v>211.6471865296041</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1108.365917331524</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C32" t="n">
-        <v>739.4034003911122</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D32" t="n">
-        <v>381.1377017843616</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
         <v>381.1377017843616</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2611.339502902651</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>2258.570847632537</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="X32" t="n">
-        <v>1885.105089371457</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="Y32" t="n">
-        <v>1494.965757395646</v>
+        <v>1543.155461091169</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6791,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>170.577874895784</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>830.1724885289282</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C35" t="n">
-        <v>830.1724885289282</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y35" t="n">
-        <v>830.1724885289282</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>286.5323736931989</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C37" t="n">
-        <v>286.5323736931989</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D37" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>286.5323736931989</v>
+        <v>606.50066520647</v>
       </c>
       <c r="U37" t="n">
-        <v>286.5323736931989</v>
+        <v>606.50066520647</v>
       </c>
       <c r="V37" t="n">
-        <v>286.5323736931989</v>
+        <v>606.50066520647</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5323736931989</v>
+        <v>606.50066520647</v>
       </c>
       <c r="X37" t="n">
-        <v>286.5323736931989</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y37" t="n">
-        <v>286.5323736931989</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1394.624369323446</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C38" t="n">
-        <v>1394.624369323446</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D38" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
         <v>1036.358670716696</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W38" t="n">
-        <v>2289.351746278601</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.885988017521</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1525.74665604171</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7274,22 +7274,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7353,31 +7353,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1791.109440255352</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,7 +7414,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224074</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2567.848612295285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2567.848612295285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2567.848612295285</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>2567.848612295285</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="X41" t="n">
-        <v>2567.848612295285</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y41" t="n">
-        <v>2177.709280319473</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>196.6941021971134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>365.6939024587809</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>365.6939024587809</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y43" t="n">
-        <v>365.6939024587809</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253591</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2317.164380266784</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>1943.698622005704</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1553.559290029893</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>361.0244890520116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>375.044882499874</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3.633152633517255</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>68.50225302454163</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>42.13842256634992</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>272.2218439815895</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.5639071305275</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>51.52173503780682</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.4951843944461</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>146.5814750110287</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194541</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.3331989350654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>52.54455953715794</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>56.01837628787163</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>257.5867426089845</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>109.3788185999331</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>69.82361682150318</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.7761146022503</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>329.1074688446358</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>56.38520456663166</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>111.6416864383013</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4201707589706</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>156.4790916226915</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24144,13 +24144,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>100.3308574797688</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>223.5693026415357</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>306.3049065213312</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.67386580734211</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>70.88668742006634</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>110.4278323808928</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>46.53378145641341</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>126.6860789209167</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1383805067655</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>1.107082982095392</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>52.27167719702715</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>11.1826395969039</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>96.01048066168073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>242.8007662357197</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>56.69042400052467</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.95250387826587</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>108.2009395795175</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>281.2220333073996</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>93.21719314673996</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>104.6230696481197</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>252.9227778123995</v>
+        <v>320.5559119209944</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>186.6211234951019</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>102.2581670201565</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>88.44084642194974</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>260.0855758900949</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>14.84727966881374</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25833,10 +25833,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>46.51305899272637</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.53450764830093</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,16 +26073,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511961.5724287872</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250658</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
+        <v>132928.538025066</v>
+      </c>
+      <c r="D2" t="n">
         <v>132928.5380250659</v>
       </c>
-      <c r="D2" t="n">
-        <v>132928.538025066</v>
-      </c>
       <c r="E2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="J2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="O2" t="n">
+        <v>231322.088012606</v>
+      </c>
+      <c r="P2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>231322.0880126062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231322.0880126062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
-        <v>384978.0241011367</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
-        <v>97512.97242237823</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>33777.16046143055</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
         <v>35944.74664026682</v>
@@ -26444,13 +26444,13 @@
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29772.00905450126</v>
+        <v>-41990.01967454166</v>
       </c>
       <c r="C6" t="n">
-        <v>50997.42247704656</v>
+        <v>38779.41185700613</v>
       </c>
       <c r="D6" t="n">
-        <v>50997.42247704659</v>
+        <v>38779.4118570061</v>
       </c>
       <c r="E6" t="n">
-        <v>51785.64537707448</v>
+        <v>-292768.7244798855</v>
       </c>
       <c r="F6" t="n">
-        <v>-238832.1607922069</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="G6" t="n">
-        <v>146145.8633089297</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="H6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="I6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="J6" t="n">
-        <v>83085.92070982368</v>
+        <v>77017.50696400439</v>
       </c>
       <c r="K6" t="n">
-        <v>146145.8633089299</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="L6" t="n">
-        <v>146145.8633089299</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="M6" t="n">
-        <v>137388.2803137163</v>
+        <v>32104.08888905246</v>
       </c>
       <c r="N6" t="n">
-        <v>48632.89088655166</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="O6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631105</v>
       </c>
       <c r="P6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631107</v>
       </c>
     </row>
   </sheetData>
@@ -26746,31 +26746,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32469,7 +32469,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32478,34 +32478,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
@@ -32584,7 +32584,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>237.9770422219166</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466066.3834296477</v>
+        <v>526901.8583413475</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>337002.2430554244</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="4">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,64 +901,64 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>78.94281254009712</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>10.74233318692733</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>82.46119763909351</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>148.6429936570148</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>284.3192806430695</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>267.2026950097663</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.6743229269906</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>365.1737359513113</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>124.3436274632773</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>67.24036028042121</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>216.6993815150878</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>293.4252479845379</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>40.62363183383319</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.66811582074963</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>94.7450758855978</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>231.6968229440582</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.465802816548594</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>266.6910260201689</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.42893514214934</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>134.257450437519</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>56.88196987815811</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>89.76224143674111</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>299.9779908452707</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>77.72878559814603</v>
       </c>
       <c r="H28" t="n">
-        <v>153.055538822593</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>275.4805812731078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>4.02012364305544</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>213.8524658611804</v>
+        <v>208.1110812604923</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>47.40419526769224</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>292.5505447168883</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>115.4685441446654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>323.0461028240386</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0400291378955</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>36.86740133315054</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4120358099646</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.17792974248621</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>132.3194745268219</v>
       </c>
     </row>
     <row r="39">
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>129.6781866221428</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>342.6006831236169</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>89.15539282731811</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.03250833503017</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>47.40419526769224</v>
       </c>
       <c r="F44" t="n">
-        <v>360.3629867489851</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>129.6781866221428</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>201.330287938294</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>30.58726043968704</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,25 +4433,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>262.7299197543128</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4512,19 +4512,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.2867411876791</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C6" t="n">
-        <v>384.2867411876791</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>189.3694397186251</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>30.13198471316963</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>384.2867411876791</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y6" t="n">
-        <v>384.2867411876791</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>813.9127174732475</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>813.9127174732475</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>813.9127174732475</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>570.4639408291474</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>570.4639408291474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5001,7 +5001,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1078.595463490097</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C11" t="n">
-        <v>709.6329465496858</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>709.6329465496858</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>323.8446939514416</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>323.8446939514416</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W11" t="n">
-        <v>1838.661061815299</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X11" t="n">
-        <v>1465.195303554219</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y11" t="n">
-        <v>1465.195303554219</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M12" t="n">
         <v>1237.953133915166</v>
@@ -5138,31 +5138,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T13" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1520.223993023726</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C14" t="n">
-        <v>1520.223993023726</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D14" t="n">
-        <v>1161.958294416976</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>1893.689751284806</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X14" t="n">
-        <v>1520.223993023726</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y14" t="n">
-        <v>1520.223993023726</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1268.68094731003</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.68094731003</v>
+        <v>1280.02760391216</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>921.7619053054091</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>921.7619053054091</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.546461473041</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X17" t="n">
-        <v>1268.68094731003</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y17" t="n">
-        <v>1268.68094731003</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5615,22 +5615,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>257.063349339234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>257.063349339234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>257.063349339234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>257.063349339234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>110.1734018413237</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694737</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694737</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.7118141694737</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1610.120910258947</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
         <v>882.8926947117852</v>
@@ -5743,22 +5743,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5770,10 +5770,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.78363766664</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>1996.720750323069</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.720750323069</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>1996.720750323069</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y20" t="n">
-        <v>1996.720750323069</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
         <v>1237.953133915166</v>
@@ -5852,22 +5852,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C22" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,7 +5919,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
         <v>529.6040388502502</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>512.3599521189926</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>512.3599521189926</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>512.3599521189926</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W22" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X22" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1584.923258067584</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.960741127172</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V23" t="n">
-        <v>2388.358616186807</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W23" t="n">
-        <v>2035.589960916693</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.124202655614</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y23" t="n">
-        <v>1662.124202655614</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,31 +6089,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.3995170508272</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C25" t="n">
-        <v>111.3995170508272</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D25" t="n">
-        <v>111.3995170508272</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E25" t="n">
-        <v>111.3995170508272</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F25" t="n">
-        <v>111.3995170508272</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>513.840561024597</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V25" t="n">
-        <v>513.840561024597</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W25" t="n">
-        <v>513.840561024597</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X25" t="n">
-        <v>513.840561024597</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y25" t="n">
-        <v>293.0479818810669</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1494.154169929768</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2551.451470804533</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2551.451470804533</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2220.388583460962</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>1867.619928190848</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>1494.154169929768</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y26" t="n">
-        <v>1494.154169929768</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>546.4805193761945</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C28" t="n">
-        <v>377.5443364482876</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D28" t="n">
-        <v>377.5443364482876</v>
+        <v>279.346854164887</v>
       </c>
       <c r="E28" t="n">
-        <v>377.5443364482876</v>
+        <v>279.346854164887</v>
       </c>
       <c r="F28" t="n">
-        <v>377.5443364482876</v>
+        <v>132.4569066669766</v>
       </c>
       <c r="G28" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2418.885877611043</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6563,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.942782082032</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T31" t="n">
-        <v>512.1163924274641</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U31" t="n">
-        <v>222.942782082032</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V31" t="n">
-        <v>222.942782082032</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W31" t="n">
-        <v>222.942782082032</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X31" t="n">
-        <v>222.942782082032</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.942782082032</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1543.155461091169</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C32" t="n">
-        <v>1543.155461091169</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.889762484419</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>1543.155461091169</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1543.155461091169</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1543.155461091169</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6800,22 +6800,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>318.4909684781771</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C34" t="n">
-        <v>318.4909684781771</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>318.4909684781771</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>170.577874895784</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084169</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.1394333084169</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>766.0404291903649</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>766.0404291903649</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>766.0404291903649</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>380.2521765921206</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V35" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>1637.643464250441</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X35" t="n">
-        <v>1637.643464250441</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y35" t="n">
-        <v>1637.643464250441</v>
+        <v>1152.640269254487</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>204.0596212327002</v>
+        <v>91.18278114677915</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>91.18278114677915</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677915</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677915</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>606.50066520647</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U37" t="n">
-        <v>606.50066520647</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V37" t="n">
-        <v>606.50066520647</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W37" t="n">
-        <v>606.50066520647</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X37" t="n">
-        <v>606.50066520647</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y37" t="n">
-        <v>385.7080860629399</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2149.375138862102</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C38" t="n">
-        <v>1780.41262192169</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7207,19 +7207,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W38" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X38" t="n">
-        <v>2212.181128500977</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y38" t="n">
-        <v>2212.181128500977</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7274,22 +7274,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C40" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W40" t="n">
-        <v>473.4444960005474</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X40" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y40" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>850.7171392082162</v>
+        <v>1196.778435292678</v>
       </c>
       <c r="C41" t="n">
-        <v>850.7171392082162</v>
+        <v>1196.778435292678</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1196.778435292678</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>810.9901826944335</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>400.004277904826</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V41" t="n">
-        <v>1717.512263598976</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W41" t="n">
-        <v>1627.45631124815</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X41" t="n">
-        <v>1627.45631124815</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y41" t="n">
-        <v>1237.316979272338</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694736</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X43" t="n">
-        <v>438.7118141694736</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.9192350259435</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.175505447095</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C44" t="n">
-        <v>1194.175505447095</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D44" t="n">
-        <v>835.9098068403443</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E44" t="n">
-        <v>835.9098068403443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7651,10 +7651,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511217</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V46" t="n">
-        <v>235.5914466506042</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W46" t="n">
-        <v>235.5914466506042</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X46" t="n">
-        <v>235.5914466506042</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992663</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.044882499874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.633152633517255</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>172.5871400214005</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,19 +22865,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>68.50225302454163</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>134.3268792064565</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>239.4980740029173</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>272.2218439815895</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>51.52173503780682</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>98.4145610204111</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.5814750110287</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>4.910330425104149</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>17.56010571216927</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>257.5867426089845</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>81.37511273779114</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,7 +23706,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>69.82361682150318</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>113.4507977571735</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>329.1074688446358</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>111.6416864383013</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>17.49548950841407</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>156.4790916226915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>154.5411157119954</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5693026415357</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>19.83197231642208</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>306.3049065213312</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>116.9667170707703</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.4278323808928</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24496,7 +24496,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>126.6860789209167</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>69.75310983319838</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>89.58101666090488</v>
       </c>
       <c r="H28" t="n">
-        <v>3.115350019202168</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>52.27167719702715</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2178150129981</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>11.1826395969039</v>
+        <v>16.92402419759196</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>366.3799747531028</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>56.69042400052467</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>29.95250387826587</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>135.9689721019664</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>83.82994291767284</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>108.2009395795175</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>108.5536466897807</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>104.6230696481197</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>320.5559119209944</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>253.9184641292317</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>156.6036876198349</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>102.2581670201565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>71.18348689717811</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>260.0855758900949</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.49548950841407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>184.0025971230541</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>334.5261748045696</v>
       </c>
       <c r="F44" t="n">
-        <v>46.51305899272637</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>16.75577602442632</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>50.80735538553398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482104.1301211513</v>
+        <v>482104.1301211516</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482104.1301211513</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
@@ -26325,10 +26325,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26340,19 +26340,19 @@
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126063</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="O2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.088012606</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126062</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26441,25 +26441,25 @@
         <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="K4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="M4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="O4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340948</v>
-      </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26502,13 +26502,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41990.01967454166</v>
+        <v>-30993.81011650522</v>
       </c>
       <c r="C6" t="n">
-        <v>38779.41185700613</v>
+        <v>49775.62141504249</v>
       </c>
       <c r="D6" t="n">
-        <v>38779.4118570061</v>
+        <v>49775.62141504251</v>
       </c>
       <c r="E6" t="n">
-        <v>-292768.7244798855</v>
+        <v>-287307.1521086484</v>
       </c>
       <c r="F6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="G6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="H6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="I6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.021934348</v>
       </c>
       <c r="J6" t="n">
-        <v>77017.50696400439</v>
+        <v>82479.07933524167</v>
       </c>
       <c r="K6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="L6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.021934348</v>
       </c>
       <c r="M6" t="n">
-        <v>32104.08888905246</v>
+        <v>37565.66126028971</v>
       </c>
       <c r="N6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.021934348</v>
       </c>
       <c r="O6" t="n">
-        <v>140077.4495631105</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="P6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.021934348</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
@@ -26755,31 +26755,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31767,34 +31767,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31931,28 +31931,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32478,34 +32478,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
@@ -32584,7 +32584,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35743,7 +35743,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,19 +38104,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
